--- a/pachong_pc/result_715-835.xlsx
+++ b/pachong_pc/result_715-835.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="522">
   <si>
     <t>AppVersion</t>
   </si>
@@ -1592,9 +1592,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1628,6 +1628,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1643,17 +1681,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1665,7 +1695,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1680,79 +1750,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1765,13 +1765,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1789,13 +1801,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1807,121 +1831,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1945,7 +1861,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1956,6 +1956,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1970,6 +1988,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1991,68 +2048,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2064,10 +2064,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -2076,16 +2076,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -2097,112 +2097,112 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -13208,10 +13208,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J122"/>
+  <dimension ref="A1:J135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="H93" sqref="H93"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -17134,10 +17134,427 @@
         <v>521</v>
       </c>
     </row>
+    <row r="123" spans="1:10">
+      <c r="A123" t="s">
+        <v>23</v>
+      </c>
+      <c r="B123" t="s">
+        <v>24</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D123" t="s">
+        <v>26</v>
+      </c>
+      <c r="E123" t="s">
+        <v>27</v>
+      </c>
+      <c r="F123" t="s">
+        <v>9</v>
+      </c>
+      <c r="G123" t="s">
+        <v>28</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I123" t="s">
+        <v>30</v>
+      </c>
+      <c r="J123" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" t="s">
+        <v>32</v>
+      </c>
+      <c r="B124" t="s">
+        <v>24</v>
+      </c>
+      <c r="C124" t="s">
+        <v>33</v>
+      </c>
+      <c r="D124" t="s">
+        <v>34</v>
+      </c>
+      <c r="E124" t="s">
+        <v>35</v>
+      </c>
+      <c r="F124" t="s">
+        <v>36</v>
+      </c>
+      <c r="G124" t="s">
+        <v>37</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I124" t="s">
+        <v>39</v>
+      </c>
+      <c r="J124" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" t="s">
+        <v>41</v>
+      </c>
+      <c r="B125" t="s">
+        <v>24</v>
+      </c>
+      <c r="C125" t="s">
+        <v>33</v>
+      </c>
+      <c r="D125" t="s">
+        <v>34</v>
+      </c>
+      <c r="E125" t="s">
+        <v>35</v>
+      </c>
+      <c r="F125" t="s">
+        <v>36</v>
+      </c>
+      <c r="G125" t="s">
+        <v>42</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I125" t="s">
+        <v>39</v>
+      </c>
+      <c r="J125" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" t="s">
+        <v>44</v>
+      </c>
+      <c r="B126" t="s">
+        <v>24</v>
+      </c>
+      <c r="C126" t="s">
+        <v>45</v>
+      </c>
+      <c r="D126" t="s">
+        <v>46</v>
+      </c>
+      <c r="E126" t="s">
+        <v>47</v>
+      </c>
+      <c r="F126" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" t="s">
+        <v>48</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I126" t="s">
+        <v>30</v>
+      </c>
+      <c r="J126" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" t="s">
+        <v>50</v>
+      </c>
+      <c r="B127" t="s">
+        <v>24</v>
+      </c>
+      <c r="C127" t="s">
+        <v>45</v>
+      </c>
+      <c r="D127" t="s">
+        <v>46</v>
+      </c>
+      <c r="E127" t="s">
+        <v>47</v>
+      </c>
+      <c r="F127" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" t="s">
+        <v>51</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I127" t="s">
+        <v>39</v>
+      </c>
+      <c r="J127" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" t="s">
+        <v>53</v>
+      </c>
+      <c r="B128" t="s">
+        <v>24</v>
+      </c>
+      <c r="C128" t="s">
+        <v>54</v>
+      </c>
+      <c r="D128" t="s">
+        <v>55</v>
+      </c>
+      <c r="E128" t="s">
+        <v>56</v>
+      </c>
+      <c r="F128" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" t="s">
+        <v>57</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I128" t="s">
+        <v>39</v>
+      </c>
+      <c r="J128" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" t="s">
+        <v>59</v>
+      </c>
+      <c r="B129" t="s">
+        <v>24</v>
+      </c>
+      <c r="C129" t="s">
+        <v>60</v>
+      </c>
+      <c r="D129" t="s">
+        <v>61</v>
+      </c>
+      <c r="E129" t="s">
+        <v>47</v>
+      </c>
+      <c r="F129" t="s">
+        <v>11</v>
+      </c>
+      <c r="G129" t="s">
+        <v>62</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I129" t="s">
+        <v>39</v>
+      </c>
+      <c r="J129" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" t="s">
+        <v>65</v>
+      </c>
+      <c r="B130" t="s">
+        <v>24</v>
+      </c>
+      <c r="C130" t="s">
+        <v>66</v>
+      </c>
+      <c r="D130" t="s">
+        <v>67</v>
+      </c>
+      <c r="E130" t="s">
+        <v>56</v>
+      </c>
+      <c r="F130" t="s">
+        <v>11</v>
+      </c>
+      <c r="G130" t="s">
+        <v>68</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I130" t="s">
+        <v>39</v>
+      </c>
+      <c r="J130" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" t="s">
+        <v>71</v>
+      </c>
+      <c r="B131" t="s">
+        <v>24</v>
+      </c>
+      <c r="C131" t="s">
+        <v>66</v>
+      </c>
+      <c r="D131" t="s">
+        <v>67</v>
+      </c>
+      <c r="E131" t="s">
+        <v>56</v>
+      </c>
+      <c r="F131" t="s">
+        <v>11</v>
+      </c>
+      <c r="G131" t="s">
+        <v>72</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I131" t="s">
+        <v>39</v>
+      </c>
+      <c r="J131" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" t="s">
+        <v>73</v>
+      </c>
+      <c r="B132" t="s">
+        <v>74</v>
+      </c>
+      <c r="C132" t="s">
+        <v>75</v>
+      </c>
+      <c r="D132" t="s">
+        <v>76</v>
+      </c>
+      <c r="E132" t="s">
+        <v>47</v>
+      </c>
+      <c r="F132" t="s">
+        <v>5</v>
+      </c>
+      <c r="G132" t="s">
+        <v>77</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I132" t="s">
+        <v>39</v>
+      </c>
+      <c r="J132" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" t="s">
+        <v>80</v>
+      </c>
+      <c r="B133" t="s">
+        <v>74</v>
+      </c>
+      <c r="C133" t="s">
+        <v>75</v>
+      </c>
+      <c r="D133" t="s">
+        <v>76</v>
+      </c>
+      <c r="E133" t="s">
+        <v>47</v>
+      </c>
+      <c r="F133" t="s">
+        <v>5</v>
+      </c>
+      <c r="G133" t="s">
+        <v>81</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I133" t="s">
+        <v>39</v>
+      </c>
+      <c r="J133" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" t="s">
+        <v>83</v>
+      </c>
+      <c r="B134" t="s">
+        <v>24</v>
+      </c>
+      <c r="C134" t="s">
+        <v>84</v>
+      </c>
+      <c r="D134" t="s">
+        <v>67</v>
+      </c>
+      <c r="E134" t="s">
+        <v>47</v>
+      </c>
+      <c r="F134" t="s">
+        <v>11</v>
+      </c>
+      <c r="G134" t="s">
+        <v>85</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I134" t="s">
+        <v>30</v>
+      </c>
+      <c r="J134" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" t="s">
+        <v>87</v>
+      </c>
+      <c r="B135" t="s">
+        <v>24</v>
+      </c>
+      <c r="C135" t="s">
+        <v>84</v>
+      </c>
+      <c r="D135" t="s">
+        <v>67</v>
+      </c>
+      <c r="E135" t="s">
+        <v>47</v>
+      </c>
+      <c r="F135" t="s">
+        <v>11</v>
+      </c>
+      <c r="G135" t="s">
+        <v>88</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I135" t="s">
+        <v>39</v>
+      </c>
+      <c r="J135" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="iPhone X"/>
     <hyperlink ref="C45" r:id="rId2" display="PCAM00"/>
+    <hyperlink ref="C123" r:id="rId1" display="iPhone X"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
